--- a/medicine/Mort/Terrorisme_en_1980/Terrorisme_en_1980.xlsx
+++ b/medicine/Mort/Terrorisme_en_1980/Terrorisme_en_1980.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,16 +520,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mai
-5 mai, Royaume-Uni : l'opération Nimrod met fin à la prise d'otages de l'ambassade iranienne à Londres. Deux otages trouvent la mort : l'un pendant la prise d'otages, l'autre pendant le raid lui-même. Cinq des six terroristes sont abattus au cours de l'opération[1].
-Juillet
-27 juillet, Belgique : une attaque à la grenade contre un car d'enfants juifs à Anvers fait un mort et dix-neuf blessés[2].
-Août
-2 août, Italie : une explosion à la gare de Bologne fait quatre-vingt cinq morts et plus de deux cents blessés. Les Brigades rouges sont d'abord soupçonnées de cet attentat, mais ce sont finalement des militants d'extrême-droite qui sont arrêtés, jugés et condamnés[3],[4].
-26 et 27 août : attentat à la bombe du Harvey's Resort Hotel
-Octobre
-26 septembre, Allemagne : un attentat à la Fête de la bière à Munich fait treize morts et deux cents blessés[5].
-3 octobre, France : l'explosion d'une bombe dissimulée dans la sacoche d'une moto devant la synagogue de la rue Copernic à Paris fait quatre morts et quarante-six blessés[6],[7],[8].</t>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 mai, Royaume-Uni : l'opération Nimrod met fin à la prise d'otages de l'ambassade iranienne à Londres. Deux otages trouvent la mort : l'un pendant la prise d'otages, l'autre pendant le raid lui-même. Cinq des six terroristes sont abattus au cours de l'opération.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1980</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>27 juillet, Belgique : une attaque à la grenade contre un car d'enfants juifs à Anvers fait un mort et dix-neuf blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1980</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 août, Italie : une explosion à la gare de Bologne fait quatre-vingt cinq morts et plus de deux cents blessés. Les Brigades rouges sont d'abord soupçonnées de cet attentat, mais ce sont finalement des militants d'extrême-droite qui sont arrêtés, jugés et condamnés,.
+26 et 27 août : attentat à la bombe du Harvey's Resort Hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1980</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 septembre, Allemagne : un attentat à la Fête de la bière à Munich fait treize morts et deux cents blessés.
+3 octobre, France : l'explosion d'une bombe dissimulée dans la sacoche d'une moto devant la synagogue de la rue Copernic à Paris fait quatre morts et quarante-six blessés.</t>
         </is>
       </c>
     </row>
